--- a/database/industries/ghaza/ghegolpa/income/quarterly/rial.xlsx
+++ b/database/industries/ghaza/ghegolpa/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegolpa\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB837B68-5464-4381-8850-F22EEB5647AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F63E2A-7514-45AD-AEFF-A7C6EA87449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غگلپا-شیر پاستوریزه پگاه گلپایگان</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,34 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-31 (2)</t>
-  </si>
-  <si>
-    <t>1400-08-17 (5)</t>
-  </si>
-  <si>
-    <t>1400-10-30 (3)</t>
-  </si>
-  <si>
-    <t>1401-02-12 (9)</t>
-  </si>
-  <si>
-    <t>1401-04-29 (2)</t>
-  </si>
-  <si>
-    <t>1401-08-08 (5)</t>
-  </si>
-  <si>
-    <t>1400-10-30</t>
+    <t>1401-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>1401-04-29</t>
   </si>
   <si>
     <t>1401-08-08 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -612,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -635,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -667,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -681,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -697,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -713,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -727,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -753,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -813,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>993476</v>
+        <v>2272045</v>
       </c>
       <c r="E11" s="13">
-        <v>1407160</v>
+        <v>2276879</v>
       </c>
       <c r="F11" s="13">
-        <v>1930391</v>
+        <v>2784128</v>
       </c>
       <c r="G11" s="13">
-        <v>1893900</v>
+        <v>3505635</v>
       </c>
       <c r="H11" s="13">
-        <v>1857752</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1968968</v>
-      </c>
-      <c r="J11" s="13">
-        <v>2272044</v>
-      </c>
-      <c r="K11" s="13">
-        <v>2276879</v>
-      </c>
-      <c r="L11" s="13">
-        <v>2784128</v>
-      </c>
-      <c r="M11" s="13">
-        <v>3505635</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3817218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-844919</v>
+        <v>-1906760</v>
       </c>
       <c r="E12" s="11">
-        <v>-1141485</v>
+        <v>-2030759</v>
       </c>
       <c r="F12" s="11">
-        <v>-1693518</v>
+        <v>-2330689</v>
       </c>
       <c r="G12" s="11">
-        <v>-1695197</v>
+        <v>-2489969</v>
       </c>
       <c r="H12" s="11">
-        <v>-1654067</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-1671567</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-1906760</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-2030759</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-2330689</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-2489969</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2949027</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>148557</v>
+        <v>365285</v>
       </c>
       <c r="E13" s="15">
-        <v>265675</v>
+        <v>246120</v>
       </c>
       <c r="F13" s="15">
-        <v>236873</v>
+        <v>453439</v>
       </c>
       <c r="G13" s="15">
-        <v>198703</v>
+        <v>1015666</v>
       </c>
       <c r="H13" s="15">
-        <v>203685</v>
-      </c>
-      <c r="I13" s="15">
-        <v>297401</v>
-      </c>
-      <c r="J13" s="15">
-        <v>365284</v>
-      </c>
-      <c r="K13" s="15">
-        <v>246120</v>
-      </c>
-      <c r="L13" s="15">
-        <v>453439</v>
-      </c>
-      <c r="M13" s="15">
-        <v>1015666</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>868191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-66630</v>
+        <v>-112007</v>
       </c>
       <c r="E14" s="11">
-        <v>-62356</v>
+        <v>-56477</v>
       </c>
       <c r="F14" s="11">
-        <v>-83772</v>
+        <v>-170481</v>
       </c>
       <c r="G14" s="11">
-        <v>-93209</v>
+        <v>-243358</v>
       </c>
       <c r="H14" s="11">
-        <v>-99536</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-104921</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-112007</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-56477</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-170481</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-243358</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-298055</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -983,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>3591</v>
+        <v>1739</v>
       </c>
       <c r="E16" s="11">
-        <v>4151</v>
+        <v>-27</v>
       </c>
       <c r="F16" s="11">
-        <v>2141</v>
+        <v>2405</v>
       </c>
       <c r="G16" s="11">
-        <v>-1402</v>
+        <v>2353</v>
       </c>
       <c r="H16" s="11">
-        <v>618</v>
-      </c>
-      <c r="I16" s="11">
-        <v>6155</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1739</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-27</v>
-      </c>
-      <c r="L16" s="11">
-        <v>2405</v>
-      </c>
-      <c r="M16" s="11">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7811</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>85518</v>
+        <v>255017</v>
       </c>
       <c r="E17" s="15">
-        <v>207470</v>
+        <v>189616</v>
       </c>
       <c r="F17" s="15">
-        <v>155242</v>
+        <v>285363</v>
       </c>
       <c r="G17" s="15">
-        <v>104092</v>
+        <v>774661</v>
       </c>
       <c r="H17" s="15">
-        <v>104767</v>
-      </c>
-      <c r="I17" s="15">
-        <v>198635</v>
-      </c>
-      <c r="J17" s="15">
-        <v>255016</v>
-      </c>
-      <c r="K17" s="15">
-        <v>189616</v>
-      </c>
-      <c r="L17" s="15">
-        <v>285363</v>
-      </c>
-      <c r="M17" s="15">
-        <v>774661</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>577947</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-9467</v>
+        <v>-34636</v>
       </c>
       <c r="E18" s="11">
-        <v>-13199</v>
+        <v>-45264</v>
       </c>
       <c r="F18" s="11">
-        <v>-14941</v>
+        <v>-37451</v>
       </c>
       <c r="G18" s="11">
-        <v>-22751</v>
+        <v>-40002</v>
       </c>
       <c r="H18" s="11">
-        <v>-27370</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-29710</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-34636</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-45264</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-37451</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-40002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-37528</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1729</v>
+        <v>-4072</v>
       </c>
       <c r="E19" s="13">
-        <v>3717</v>
+        <v>-6633</v>
       </c>
       <c r="F19" s="13">
-        <v>533</v>
+        <v>2221</v>
       </c>
       <c r="G19" s="13">
-        <v>3883</v>
+        <v>6386</v>
       </c>
       <c r="H19" s="13">
-        <v>4314</v>
-      </c>
-      <c r="I19" s="13">
-        <v>-242</v>
-      </c>
-      <c r="J19" s="13">
-        <v>2561</v>
-      </c>
-      <c r="K19" s="13">
-        <v>4661</v>
-      </c>
-      <c r="L19" s="13">
-        <v>2221</v>
-      </c>
-      <c r="M19" s="13">
-        <v>6386</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>77780</v>
+        <v>216309</v>
       </c>
       <c r="E20" s="17">
-        <v>197988</v>
+        <v>137719</v>
       </c>
       <c r="F20" s="17">
-        <v>140834</v>
+        <v>250133</v>
       </c>
       <c r="G20" s="17">
-        <v>85224</v>
+        <v>741045</v>
       </c>
       <c r="H20" s="17">
-        <v>81711</v>
-      </c>
-      <c r="I20" s="17">
-        <v>168683</v>
-      </c>
-      <c r="J20" s="17">
-        <v>222941</v>
-      </c>
-      <c r="K20" s="17">
-        <v>149013</v>
-      </c>
-      <c r="L20" s="17">
-        <v>250133</v>
-      </c>
-      <c r="M20" s="17">
-        <v>741045</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>539172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-18472</v>
+        <v>-52948</v>
       </c>
       <c r="E21" s="13">
-        <v>-47023</v>
+        <v>-35391</v>
       </c>
       <c r="F21" s="13">
-        <v>-33449</v>
+        <v>-59407</v>
       </c>
       <c r="G21" s="13">
-        <v>-20240</v>
+        <v>-119005</v>
       </c>
       <c r="H21" s="13">
-        <v>-21432</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-38037</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-52948</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-35391</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-59407</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-119005</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-127658</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>59308</v>
+        <v>163361</v>
       </c>
       <c r="E22" s="17">
-        <v>150965</v>
+        <v>102328</v>
       </c>
       <c r="F22" s="17">
-        <v>107385</v>
+        <v>190726</v>
       </c>
       <c r="G22" s="17">
-        <v>64984</v>
+        <v>622040</v>
       </c>
       <c r="H22" s="17">
-        <v>60279</v>
-      </c>
-      <c r="I22" s="17">
-        <v>130646</v>
-      </c>
-      <c r="J22" s="17">
-        <v>169993</v>
-      </c>
-      <c r="K22" s="17">
-        <v>113622</v>
-      </c>
-      <c r="L22" s="17">
-        <v>190726</v>
-      </c>
-      <c r="M22" s="17">
-        <v>622040</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>411514</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1271,97 +992,52 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>59308</v>
+        <v>163361</v>
       </c>
       <c r="E24" s="17">
-        <v>150965</v>
+        <v>102328</v>
       </c>
       <c r="F24" s="17">
-        <v>107385</v>
+        <v>190726</v>
       </c>
       <c r="G24" s="17">
-        <v>64984</v>
+        <v>622040</v>
       </c>
       <c r="H24" s="17">
-        <v>60279</v>
-      </c>
-      <c r="I24" s="17">
-        <v>130646</v>
-      </c>
-      <c r="J24" s="17">
-        <v>169993</v>
-      </c>
-      <c r="K24" s="17">
-        <v>113622</v>
-      </c>
-      <c r="L24" s="17">
-        <v>190726</v>
-      </c>
-      <c r="M24" s="17">
-        <v>622040</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>411514</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>351</v>
+        <v>967</v>
       </c>
       <c r="E25" s="13">
-        <v>893</v>
+        <v>605</v>
       </c>
       <c r="F25" s="13">
-        <v>635</v>
+        <v>1129</v>
       </c>
       <c r="G25" s="13">
-        <v>385</v>
+        <v>3681</v>
       </c>
       <c r="H25" s="13">
-        <v>357</v>
-      </c>
-      <c r="I25" s="13">
-        <v>773</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1006</v>
-      </c>
-      <c r="K25" s="13">
-        <v>672</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1129</v>
-      </c>
-      <c r="M25" s="13">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1379,59 +1055,29 @@
       <c r="H26" s="11">
         <v>169000</v>
       </c>
-      <c r="I26" s="11">
-        <v>169000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>169000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>169000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>169000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>169000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>351</v>
+        <v>967</v>
       </c>
       <c r="E27" s="13">
-        <v>893</v>
+        <v>605</v>
       </c>
       <c r="F27" s="13">
-        <v>635</v>
+        <v>1129</v>
       </c>
       <c r="G27" s="13">
-        <v>385</v>
+        <v>3681</v>
       </c>
       <c r="H27" s="13">
-        <v>357</v>
-      </c>
-      <c r="I27" s="13">
-        <v>773</v>
-      </c>
-      <c r="J27" s="13">
-        <v>1006</v>
-      </c>
-      <c r="K27" s="13">
-        <v>672</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1129</v>
-      </c>
-      <c r="M27" s="13">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1439,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ghaza/ghegolpa/income/quarterly/rial.xlsx
+++ b/database/industries/ghaza/ghegolpa/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegolpa\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegolpa\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F63E2A-7514-45AD-AEFF-A7C6EA87449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431AB20-03A2-41A5-A9AE-E21DFDF5F0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-17 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-02-12 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-08-08 (5)</t>
   </si>
   <si>
     <t>1401-10-29 (2)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>1407160</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1930391</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1893900</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1857752</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1968968</v>
+      </c>
+      <c r="I11" s="13">
         <v>2272045</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>2276879</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>2784128</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>3505635</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>3817218</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-1141485</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1693518</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1695197</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1654067</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1671567</v>
+      </c>
+      <c r="I12" s="11">
         <v>-1906760</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-2030759</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-2330689</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-2489969</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-2949027</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>265675</v>
+      </c>
+      <c r="E13" s="15">
+        <v>236873</v>
+      </c>
+      <c r="F13" s="15">
+        <v>198703</v>
+      </c>
+      <c r="G13" s="15">
+        <v>203685</v>
+      </c>
+      <c r="H13" s="15">
+        <v>297401</v>
+      </c>
+      <c r="I13" s="15">
         <v>365285</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>246120</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>453439</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>1015666</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>868191</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-62356</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-83772</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-93209</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-99536</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-104921</v>
+      </c>
+      <c r="I14" s="11">
         <v>-112007</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-56477</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-170481</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-243358</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-298055</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>4151</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2141</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1402</v>
+      </c>
+      <c r="G16" s="11">
+        <v>618</v>
+      </c>
+      <c r="H16" s="11">
+        <v>6155</v>
+      </c>
+      <c r="I16" s="11">
         <v>1739</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-27</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>2405</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>2353</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>7811</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>207470</v>
+      </c>
+      <c r="E17" s="15">
+        <v>155242</v>
+      </c>
+      <c r="F17" s="15">
+        <v>104092</v>
+      </c>
+      <c r="G17" s="15">
+        <v>104767</v>
+      </c>
+      <c r="H17" s="15">
+        <v>198635</v>
+      </c>
+      <c r="I17" s="15">
         <v>255017</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>189616</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>285363</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>774661</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>577947</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-13199</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-14941</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-22751</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-27370</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-29710</v>
+      </c>
+      <c r="I18" s="11">
         <v>-34636</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-45264</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-37451</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-40002</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-37528</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>3717</v>
+      </c>
+      <c r="E19" s="13">
+        <v>533</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3883</v>
+      </c>
+      <c r="G19" s="13">
+        <v>4314</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-242</v>
+      </c>
+      <c r="I19" s="13">
         <v>-4072</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>-6633</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>2221</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>6386</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>-1247</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>197988</v>
+      </c>
+      <c r="E20" s="17">
+        <v>140834</v>
+      </c>
+      <c r="F20" s="17">
+        <v>85224</v>
+      </c>
+      <c r="G20" s="17">
+        <v>81711</v>
+      </c>
+      <c r="H20" s="17">
+        <v>168683</v>
+      </c>
+      <c r="I20" s="17">
         <v>216309</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>137719</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>250133</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>741045</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>539172</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-47023</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-33449</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-20240</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-21432</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-38037</v>
+      </c>
+      <c r="I21" s="13">
         <v>-52948</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-35391</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-59407</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-119005</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-127658</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>150965</v>
+      </c>
+      <c r="E22" s="17">
+        <v>107385</v>
+      </c>
+      <c r="F22" s="17">
+        <v>64984</v>
+      </c>
+      <c r="G22" s="17">
+        <v>60279</v>
+      </c>
+      <c r="H22" s="17">
+        <v>130646</v>
+      </c>
+      <c r="I22" s="17">
         <v>163361</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>102328</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>190726</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>622040</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>411514</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1274,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>150965</v>
+      </c>
+      <c r="E24" s="17">
+        <v>107385</v>
+      </c>
+      <c r="F24" s="17">
+        <v>64984</v>
+      </c>
+      <c r="G24" s="17">
+        <v>60279</v>
+      </c>
+      <c r="H24" s="17">
+        <v>130646</v>
+      </c>
+      <c r="I24" s="17">
         <v>163361</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>102328</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>190726</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>622040</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>411514</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>893</v>
+      </c>
+      <c r="E25" s="13">
+        <v>635</v>
+      </c>
+      <c r="F25" s="13">
+        <v>385</v>
+      </c>
+      <c r="G25" s="13">
+        <v>357</v>
+      </c>
+      <c r="H25" s="13">
+        <v>773</v>
+      </c>
+      <c r="I25" s="13">
         <v>967</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>605</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>1129</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>3681</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>2435</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>169000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>169000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>169000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>169000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>169000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>893</v>
+      </c>
+      <c r="E27" s="13">
+        <v>635</v>
+      </c>
+      <c r="F27" s="13">
+        <v>385</v>
+      </c>
+      <c r="G27" s="13">
+        <v>357</v>
+      </c>
+      <c r="H27" s="13">
+        <v>773</v>
+      </c>
+      <c r="I27" s="13">
         <v>967</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>605</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>1129</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>3681</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>2435</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ghaza/ghegolpa/income/quarterly/rial.xlsx
+++ b/database/industries/ghaza/ghegolpa/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegolpa\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ghaza\ghegolpa\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431AB20-03A2-41A5-A9AE-E21DFDF5F0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -154,8 +153,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -189,6 +192,11 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -251,10 +259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -301,8 +310,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,10 +627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1388,14 +1403,14 @@
       <c r="J26" s="11">
         <v>169000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="18">
         <v>169000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="18">
         <v>169000</v>
       </c>
-      <c r="M26" s="11">
-        <v>169000</v>
+      <c r="M26" s="18">
+        <v>369000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
